--- a/biology/Zoologie/Elasmotherium/Elasmotherium.xlsx
+++ b/biology/Zoologie/Elasmotherium/Elasmotherium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Elasmotherium, aussi surnommé « licorne géante », est un genre fossile de rhinocérotidés qui a vécu en Asie et en Europe de la fin du Pliocène jusque vers la fin du Pléistocène, c'est-à-dire il y a environ entre -2,58 millions d'années et 39-36 000 ans avant notre ère.
 Elasmotherium mesurait 5 mètres de long, 2 mètres au garrot et pesait jusqu'à 4 tonnes. Ses pattes étaient plus longues que celles des rhinocéros actuels, et étaient faites pour le galop, ce qui donnait à l'animal une allure semblable à celle du cheval. Son crâne aurait été orné d'une énorme corne haute de presque 2 mètres. Ses dents étaient semblables à celles des chevaux d'aujourd'hui, et indiquent probablement un régime à base d'herbes coriaces.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mot « Elasmotherium » est formé à partir du grec έλασμος, « lame », et θηρίον, « bête sauvage », le premier terme renvoyant à la forme des molaires de l'animal, par ailleurs dépourvu d'incisives et de canines.
 </t>
@@ -543,11 +557,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elasmotherium mesurait 5 mètres de long, 2 mètres au garrot et pesait jusqu'à 4 tonnes.
 Ses pattes étaient plus longues que celles des rhinocéros actuels, et étaient faites pour le galop, ce qui donnait à l'animal une allure semblable à celle du cheval.
-Son crâne aurait été orné d'une énorme corne haute de presque 2 mètres. Cependant, une équipe Russo-Ukrainienne, menée par Vadim Titov, de l’Université fédérale de Rostov-sur-le-Don (Russie), s’est attachée, fin 2021, à réétudier de près l’anatomie crânienne : ils ont exclu la présence de cette corne gigantesque en raison du dôme osseux relativement fragile qui ne pouvait probablement pas supporter le poids d’une corne de 2 mètres. Ils envisagent également la présence d’une petite zone kératinisée en position nasale, ce qui conférerait à Elasmotherium non pas une mais deux « pseudo-cornes » sur le crâne[1],[2].
+Son crâne aurait été orné d'une énorme corne haute de presque 2 mètres. Cependant, une équipe Russo-Ukrainienne, menée par Vadim Titov, de l’Université fédérale de Rostov-sur-le-Don (Russie), s’est attachée, fin 2021, à réétudier de près l’anatomie crânienne : ils ont exclu la présence de cette corne gigantesque en raison du dôme osseux relativement fragile qui ne pouvait probablement pas supporter le poids d’une corne de 2 mètres. Ils envisagent également la présence d’une petite zone kératinisée en position nasale, ce qui conférerait à Elasmotherium non pas une mais deux « pseudo-cornes » sur le crâne,.
 Les représentations, notamment dans les grottes du paléolithique sont donc totalement à reconsidérer.
 Les scientifiques pensent que cet animal était un coureur très rapide (bien plus rapide que le rhinocéros qui peut déjà courir jusqu'à 55 km/h), en dépit de sa taille.
 Ses dents étaient semblables à celles des chevaux d'aujourd'hui, et indiquent probablement un régime à base d'herbes coriaces.
@@ -579,9 +595,11 @@
           <t>Évolution et diffusion</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On a retrouvé de nombreux fossiles appartenant à des espèces diverses de cet animal : les restes les plus anciens ont été retrouvés en Chine orientale dans des terrains remontant au Pliocène supérieur, et ils appartiennent aux espèces Elasmotherium inexpectatum et Elasmotherium peii. Les origines de ces formes primitives semblent résider dans le genre Sinotherium, du Miocène supérieur. Les Elasmotherium primitifs ont disparu au cours du Pléistocène inférieur, il y a environ 1,6 million d'années. D'autres espèces d'Elasmotherium, comme Elasmotherium caucasicum, sont apparues en Russie il y a environ un million d'années. L'espèce la plus grande et la plus évoluée, Elasmotherium sibiricum surnommée « licorne sibérienne », est apparue en Russie du Sud-Ouest au Pléistocène moyen, et elle s'est répandue jusqu'en Sibérie[3]. Elasmotherium s'est répandu dans toute la Russie méridionale, en Ukraine, en Moldavie.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On a retrouvé de nombreux fossiles appartenant à des espèces diverses de cet animal : les restes les plus anciens ont été retrouvés en Chine orientale dans des terrains remontant au Pliocène supérieur, et ils appartiennent aux espèces Elasmotherium inexpectatum et Elasmotherium peii. Les origines de ces formes primitives semblent résider dans le genre Sinotherium, du Miocène supérieur. Les Elasmotherium primitifs ont disparu au cours du Pléistocène inférieur, il y a environ 1,6 million d'années. D'autres espèces d'Elasmotherium, comme Elasmotherium caucasicum, sont apparues en Russie il y a environ un million d'années. L'espèce la plus grande et la plus évoluée, Elasmotherium sibiricum surnommée « licorne sibérienne », est apparue en Russie du Sud-Ouest au Pléistocène moyen, et elle s'est répandue jusqu'en Sibérie. Elasmotherium s'est répandu dans toute la Russie méridionale, en Ukraine, en Moldavie.
 </t>
         </is>
       </c>
@@ -610,10 +628,12 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les particularités morphologiques des Elasmotherium ont fait naître deux hypothèses principales concernant leur aspect et les caractéristiques de leur habitat. La première, acceptée par la plupart des spécialistes, décrit les Elasmotherium comme de grands animaux à longs poils, avec une corne gigantesque sur le sommet du crâne, et qui habitaient les steppes ouvertes. Des restes de corne, cependant, n'ont jamais été retrouvés ; on a seulement une impressionnante structure osseuse qui faisait fonction de support.
-L'autre hypothèse voit dans les Elasmotherium des animaux qui vivaient à proximité des rives de fleuves. Cette théorie se fonde sur la morphologie dentaire et crânienne : la combinaison de caractères comme l'absence de canines et les mouvements latéraux des mâchoires fortement développées impliquent des mouvements latéraux de la tête, vraisemblablement pour se nourrir d'herbe. Les prairies initiales étaient formées d'espèces en C3, qui sont plus nutritives que les espèces en C4[4]. La denture hypsodonte indique la présence de minéraux dans l'alimentation ; une nourriture de ce type se trouve principalement sur les rives des cours d'eau. D'autre part, les pattes longues et sveltes pouvaient servir à l'animal pour se déplacer sur de vastes aires de pâture, comme les steppes. Il est au fond possible que les deux hypothèses soient correctes.
+L'autre hypothèse voit dans les Elasmotherium des animaux qui vivaient à proximité des rives de fleuves. Cette théorie se fonde sur la morphologie dentaire et crânienne : la combinaison de caractères comme l'absence de canines et les mouvements latéraux des mâchoires fortement développées impliquent des mouvements latéraux de la tête, vraisemblablement pour se nourrir d'herbe. Les prairies initiales étaient formées d'espèces en C3, qui sont plus nutritives que les espèces en C4. La denture hypsodonte indique la présence de minéraux dans l'alimentation ; une nourriture de ce type se trouve principalement sur les rives des cours d'eau. D'autre part, les pattes longues et sveltes pouvaient servir à l'animal pour se déplacer sur de vastes aires de pâture, comme les steppes. Il est au fond possible que les deux hypothèses soient correctes.
 </t>
         </is>
       </c>
@@ -642,10 +662,12 @@
           <t>Disparition</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre s'est éteint à la fin du Pléistocène moyen, les derniers fossiles étant trouvés en Sibérie occidentale et datant de 36–35 000 ans[5] (39 000 ans pour l'espèce Elasmotherium sibiricum[3]), c'est-à-dire pendant la grande Extinction du Quaternaire qui a vu la disparition de presque tous les animaux de plus de 45 kg.
-Après avoir longtemps pensé qu’Elasmotherium avait disparu avant l'apparition de l'Humanité, des découvertes récentes amènent à penser que des espèces du genre Elasmotherium ont croisé la route des premiers hommes. Au Kazakhstan a été découvert un spécimen d'Elasmotherium sibiricum daté d'environ 26 000 ans[6]. Si l'hypothèse d'une disparition due à la surchasse n'est pas écartée, c'est celle de la glaciation réduisant les herbages qui semble à privilégier[7].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre s'est éteint à la fin du Pléistocène moyen, les derniers fossiles étant trouvés en Sibérie occidentale et datant de 36–35 000 ans (39 000 ans pour l'espèce Elasmotherium sibiricum), c'est-à-dire pendant la grande Extinction du Quaternaire qui a vu la disparition de presque tous les animaux de plus de 45 kg.
+Après avoir longtemps pensé qu’Elasmotherium avait disparu avant l'apparition de l'Humanité, des découvertes récentes amènent à penser que des espèces du genre Elasmotherium ont croisé la route des premiers hommes. Au Kazakhstan a été découvert un spécimen d'Elasmotherium sibiricum daté d'environ 26 000 ans. Si l'hypothèse d'une disparition due à la surchasse n'est pas écartée, c'est celle de la glaciation réduisant les herbages qui semble à privilégier.
 </t>
         </is>
       </c>
@@ -674,7 +696,9 @@
           <t>Possibles témoignages archéologiques et historiques</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a été supposé que la survie d’Elasmotherium pendant les temps protohistoriques pourrait être à l'origine du mythe de la licorne. La représentation celtique sur le chaudron de Gundestrup de ce qui est identifié comme le sacrifice de trois taureaux, peut aussi évoquer des Elasmotherium ; suivant cette hypothèse, les anciens celtes auraient côtoyé cet animal, ou du moins en auraient gardé le souvenir.[réf. nécessaire]
 La description d’Elasmotherium semble correspondre à celle d'une licorne karkadann en Perse, à l'Indrik dans le folklore russe et à la licorne zhi de la mythologie chinoise. Il est cependant plus probable que la source de toutes ces légendes ne soit en fait tout simplement des rhinocéros. Enfin, selon l'encyclopédie suédoise Nordisk familjebok et le chercheur Willy Ley, l'animal pourrait ainsi avoir laissé des traces dans les légendes du peuple Evenk en Russie, sous la forme d'un énorme taureau noir doté d'une corne unique au sommet de sa tête.
@@ -715,9 +739,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (1 janvier 2018)[8] :
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (1 janvier 2018) :
 Elasmotherium caucasicum Borissiak, 1914 †
 Elasmotherium inexpectatum Chow, 1958 †
 Elasmotherium pei †
@@ -749,7 +775,9 @@
           <t>Culture populaire</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans la série documentaire Prehistoric Park, Nigel Marven sauve un Elasmotherium.
 </t>
